--- a/Songs and Poems.xlsx
+++ b/Songs and Poems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Lira Worship Centre" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="208">
   <si>
     <t>Apwony Apwony Apwony</t>
   </si>
@@ -595,13 +595,58 @@
   </si>
   <si>
     <t>wek ocak neni kede wang apat</t>
+  </si>
+  <si>
+    <t>Were omaro padhola thielo Kwara Adhola telo jopadhola ka luwo i Tieng Adhola rumito riwo wa ji jie !</t>
+  </si>
+  <si>
+    <t>Wanor,siem oloro! Kole to winikune? wadong win Padhola.</t>
+  </si>
+  <si>
+    <t>Nyikway Adhola ( nyikway Adhola) ma piny gipi (ma piny gipi) miyere win wanyal dongo piny mawan</t>
+  </si>
+  <si>
+    <t>Wasen,jowor,jombaka tic</t>
+  </si>
+  <si>
+    <t>Wariwere win wanyal dongo padholaa!</t>
+  </si>
+  <si>
+    <t>Ngango pa jopadhola aah jongiyo tic gi men ka luwo i miyirok gi tiyirok i achiel gi marok Karo tic</t>
+  </si>
+  <si>
+    <t>Nyikway Adhola (nyikway Adhola) ma piny gipi (ma piny gipi) miyere win wanyal dongo piny mawan</t>
+  </si>
+  <si>
+    <t>Kwoto pa jopadhola aah yowok chon bedo tho ot ma yowok Wang chieng ma rwako lim i piny pajo</t>
+  </si>
+  <si>
+    <t>Wariwere win wanyal dongooooo padholaaaa!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole to winikune? </t>
+  </si>
+  <si>
+    <t>waswana win padholaa!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gi got machil gi chil kole to winikune? </t>
+  </si>
+  <si>
+    <t>wagwok win padholaa!</t>
+  </si>
+  <si>
+    <t>Nyiway Adhola ( nyikway Adhola) ma piny gipi (ma piny gipi) miyere win wanyal dongo piny mawan</t>
+  </si>
+  <si>
+    <t>Padhola opong sim la dongo wa med win meni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -614,6 +659,17 @@
       <color rgb="FF666666"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1C1E21"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -636,9 +692,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -937,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:A226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1924,12 +1986,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="77.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" ht="29.25">
+      <c r="A2" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="29.25">
+      <c r="A4" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="29.25">
+      <c r="A7" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="29.25">
+      <c r="A10" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="29.25">
+      <c r="A11" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="29.25">
+      <c r="A14" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
